--- a/biology/Histoire de la zoologie et de la botanique/George_Gardner/George_Gardner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Gardner/George_Gardner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Gardner est un botaniste britannique, né le 10 mai 1812 à Glasgow et mort le 10 mars 1849 à Neura Ellia à Ceylan.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son Medical Doctorat à Glasgow en 1835 où il étudie auprès de William Jackson Hooker (1785-1865). Il voyage au Brésil pour y récolter des spécimens de 1836 à 1841. En 1843, il vient à Oxford assister Henry Barron Fielding (1805-1851) pour réorganiser son herbier et écrire des descriptions botaniques pour Sertum Plantarum (1844 à 1849). Il devient membre de la Société linnéenne de Londres en 1842. En 1844, il devient le directeur du jardin botanique de Peradeniya à Celyan. Il collecte des spécimens à l’île Maurice et à Madras en 1845. Gardner fait paraître Musci Britannici en 1836 et Travels in Interior of Brazil en 1849.
 Nathaniel Wallich (1786-1854) lui dédie en 1820 le genre Gardneria de la famille des Loganiaceae.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ray Desmond (1994). Dictionary of British and Irish Botanists and Horticulturists includins Plant Collectors, Flower Painters and Garden Designers. Taylor &amp; Francis and The Natural History Museum (Londres).</t>
         </is>
